--- a/контакты для Сергея.xlsx
+++ b/контакты для Сергея.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Пароли" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="184">
   <si>
     <t>контрагент</t>
   </si>
@@ -584,6 +585,15 @@
   </si>
   <si>
     <t>q5d$k2Z6XGE@&amp;rS87lgL@U4Z</t>
+  </si>
+  <si>
+    <t>Держпродспоживслужба, кабинет № 328</t>
+  </si>
+  <si>
+    <t>044-278-44-47</t>
+  </si>
+  <si>
+    <t>Мария Николаевна Федорова (гол.специалист)               Евген Александрович (гол. Спецалист)</t>
   </si>
 </sst>
 </file>
@@ -764,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -871,6 +881,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1153,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1749,24 @@
         <v>148</v>
       </c>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="38"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C54:C55"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId1"/>
 </worksheet>
@@ -1746,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:W34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/контакты для Сергея.xlsx
+++ b/контакты для Сергея.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taranov\LAPOUS_BOSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPOUS_BOSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -805,6 +805,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,9 +884,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,12 +1756,12 @@
       <c r="B54" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="38"/>
+      <c r="C55" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1787,906 +1787,906 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="32"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="35"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="18"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="16"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="16"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="18"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="19"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="13" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="13" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="13" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="16"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="19"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="19" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="22"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="25"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="13" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="16"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="19"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="13" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="16"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="19"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="13" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="16"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="19"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="13" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="16"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="19"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="13" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="16"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="19"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="16"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="19"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="16"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="19"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="16"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="32">

--- a/контакты для Сергея.xlsx
+++ b/контакты для Сергея.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Пароли" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
   <si>
     <t>контрагент</t>
   </si>
@@ -595,12 +594,21 @@
   <si>
     <t>Мария Николаевна Федорова (гол.специалист)               Евген Александрович (гол. Спецалист)</t>
   </si>
+  <si>
+    <t>ООО "Комфорт Текстиль Групп"</t>
+  </si>
+  <si>
+    <t>тел.: (067) -225 - 33 - 00  </t>
+  </si>
+  <si>
+    <t>Изготовление и пошив под заказ.      Наталия Молчанова</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +642,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -774,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -792,99 +807,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A56" sqref="A56:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,101 +1700,127 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="34" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="34" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="35" t="s">
         <v>137</v>
       </c>
+      <c r="C49" s="36"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="35" t="s">
         <v>139</v>
       </c>
+      <c r="C50" s="36"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="35" t="s">
         <v>141</v>
       </c>
+      <c r="C51" s="36"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="36" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="39" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="42" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="38"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId1"/>
@@ -1782,920 +1837,924 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="3.7109375" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="24" width="3.7109375" style="7" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="23"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="15"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="18"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="15"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="18"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="13" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="18"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="13" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="18"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="13" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="27"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="18"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="19" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="21"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="29"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="24"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="32"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="13" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="13" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="18"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="13" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="18"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="13"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="13" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="15"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="18"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="13"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="13" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="15"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="10"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="18"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="13"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="15"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="18"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="13"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="15"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="10"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="18"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="13"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="15"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="18"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -2712,16 +2771,12 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/контакты для Сергея.xlsx
+++ b/контакты для Сергея.xlsx
@@ -651,7 +651,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +667,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,25 +795,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,6 +832,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,63 +889,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,609 +1213,879 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="38" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="40" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="40" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="40" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="41"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="41"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="41"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="41" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="42"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="42"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="42"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="42"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="42"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="42"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="42"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="42"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="42"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="42"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="42"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="42"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="42"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="42"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="42"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="42"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="42"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="42"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="42"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="42"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="42"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="42"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="42"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="42"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="42"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="42"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="42"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="42"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="42"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="42"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="42"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="42"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="42"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="42"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="42"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="42"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="42"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="42"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="42"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="42"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="42"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="42"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="42"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="42"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="42"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="42"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="42"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="42"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="42"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="42"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="42"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="42"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="42"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="42"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="42"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="42"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="42"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="42"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="42"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="42"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="42"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="42"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="42"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="42"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="42"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="42"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="42"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="42"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="42"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="42"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="42"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="42"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="42"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="42"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="42"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="42"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="42"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="42"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="42"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="42"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="42"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="42"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="42"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="42"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="42"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1837,103 +2111,103 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="3.7109375" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="24" width="3.7109375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="26"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="29"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="8" t="s">
         <v>150</v>
       </c>
@@ -1950,17 +2224,17 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1975,19 +2249,19 @@
       <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="8" t="s">
         <v>159</v>
       </c>
@@ -2004,17 +2278,17 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2029,19 +2303,19 @@
       <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="8" t="s">
         <v>160</v>
       </c>
@@ -2058,17 +2332,17 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -2220,29 +2494,29 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="26"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
@@ -2270,58 +2544,58 @@
       <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="27" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="29"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="32"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="19"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -2745,16 +3019,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -2771,12 +3041,16 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/контакты для Сергея.xlsx
+++ b/контакты для Сергея.xlsx
@@ -328,9 +328,6 @@
     <t>464 94 26</t>
   </si>
   <si>
-    <t>Мед препараты, растворы итп. Не успел с ними начать сотрудничать. Прозванивай, договаривайся. Многие ветклиники с ними работают.</t>
-  </si>
-  <si>
     <t>Черничко</t>
   </si>
   <si>
@@ -602,6 +599,9 @@
   </si>
   <si>
     <t>Изготовление и пошив под заказ.      Наталия Молчанова</t>
+  </si>
+  <si>
+    <t>Мед препараты, растворы итп. Не успел с ними начать сотрудничать. Прозванивай, договаривайся. Многие ветклиники с ними работают. ПОКА НЕТ РАСТВОРОВ _ ИНИКОГДА НЕ БУДЕТ, ШПРИЦОВ ТОЖН НЕТ, С ВЕТКЛИНИКАМИ УЖ ГОД НЕ РАБОТАЮТ</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +673,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -805,119 +811,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,32 +1231,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>130</v>
+      <c r="C2" s="45" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1250,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
@@ -1260,7 +1278,7 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1287,7 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1280,7 +1298,7 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1291,7 +1309,7 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1302,7 +1320,7 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1313,7 +1331,7 @@
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1324,7 +1342,7 @@
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1335,7 +1353,7 @@
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1346,7 +1364,7 @@
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1357,7 +1375,7 @@
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1368,7 +1386,7 @@
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1379,7 +1397,7 @@
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1390,18 +1408,18 @@
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1412,7 +1430,7 @@
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1423,18 +1441,18 @@
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1445,7 +1463,7 @@
       <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1456,7 +1474,7 @@
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1467,7 +1485,7 @@
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1478,7 +1496,7 @@
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1489,8 +1507,8 @@
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>135</v>
+      <c r="B26" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="C26" s="4"/>
     </row>
@@ -1498,7 +1516,7 @@
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1509,7 +1527,7 @@
       <c r="A28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1520,7 +1538,7 @@
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1531,7 +1549,7 @@
       <c r="A30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1542,7 +1560,7 @@
       <c r="A31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1553,8 +1571,8 @@
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>111</v>
+      <c r="B32" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>82</v>
@@ -1564,7 +1582,7 @@
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -1575,7 +1593,7 @@
       <c r="A34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1586,7 +1604,7 @@
       <c r="A35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1597,7 +1615,7 @@
       <c r="A36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -1608,484 +1626,484 @@
       <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>100</v>
+      <c r="C38" s="43" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="C39" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="C40" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="C41" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="C45" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="38" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="B46" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="37" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="B48" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="40" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="41"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
+      <c r="B50" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="41"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="B51" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="41"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="3" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="B53" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="C54" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C54" s="34" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="B56" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="5"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="15"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="42"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="42"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="42"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="42"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="42"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="42"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="42"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="42"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="42"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="42"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="42"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="42"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="12"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="42"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="42"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="42"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="42"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="42"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="42"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="12"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="42"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="12"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="42"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="12"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="42"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="42"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="12"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="42"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="12"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="42"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="12"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="42"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="12"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="42"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="12"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="42"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="42"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="12"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="42"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="12"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="42"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="12"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="42"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="12"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="42"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="12"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="42"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="12"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="42"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="12"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="42"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="12"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="42"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="12"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="42"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="12"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="42"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="12"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="42"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="12"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="42"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="12"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="42"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="42"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="12"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="42"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="12"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="42"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="12"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="42"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="12"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="42"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="12"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="42"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="12"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="42"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="12"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="42"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="12"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="42"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="12"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="42"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="12"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="42"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2117,7 +2135,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2130,7 +2148,7 @@
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
       <c r="L1" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
@@ -2195,836 +2213,840 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="10"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="13"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="19"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="22"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="22"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="19"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="35"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="22"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="38"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="41"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="16"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="19"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="22"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="10"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="8" t="s">
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="22"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="19"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="10"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="8" t="s">
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="19"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="10"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="10"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="19"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="13"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="22"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="10"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="19"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="13"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="22"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="10"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="19"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="13"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="10"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="19"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="13"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3041,16 +3063,12 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3072,26 +3090,26 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
         <v>176</v>
-      </c>
-      <c r="D3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
         <v>178</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>179</v>
-      </c>
-      <c r="E5" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
